--- a/workdocs/example.xlsx
+++ b/workdocs/example.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deduped" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="&lt;Worksheet &quot;sheet1&quot;&gt;-deduped" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
 </workbook>
